--- a/data/income_statement/3digits/total/492_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/492_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>492-Freight rail transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>492-Freight rail transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>108133.68259</v>
@@ -977,16 +883,21 @@
         <v>253003.67555</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>512877.3711</v>
+        <v>513305.11263</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>725686.27276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>725687.30106</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1014712.564</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>84803.00963</v>
@@ -995,7 +906,7 @@
         <v>91353.07485</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>99863.18598000001</v>
+        <v>99863.18597999999</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>126785.17283</v>
@@ -1016,16 +927,21 @@
         <v>204977.15336</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>447662.37465</v>
+        <v>448090.11618</v>
       </c>
       <c r="M6" s="48" t="n">
         <v>415781.8999199999</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="48" t="n">
+        <v>593697.946</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>22861.70018</v>
@@ -1049,22 +965,27 @@
         <v>33527.36487</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>51533.19209999999</v>
+        <v>51533.1921</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>46138.5143</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>61299.31963999999</v>
+        <v>61299.31964</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>109780.72745</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>146703.389</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>468.97278</v>
@@ -1076,10 +997,10 @@
         <v>933.5522099999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>894.7421100000001</v>
+        <v>894.74211</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>663.4211</v>
+        <v>663.4210999999999</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>1866.78761</v>
@@ -1094,19 +1015,24 @@
         <v>1888.00789</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3915.676809999999</v>
+        <v>3915.67681</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>200123.64539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>200124.67369</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>274311.229</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>586.8085600000001</v>
+        <v>586.8085599999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>363.65396</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>4754.04142</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>17977.524</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>555.2902800000001</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>2975.71001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>13575.962</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1634.58257</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>4401.562</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>31.51828</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>143.74884</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>107546.87403</v>
@@ -1289,16 +1235,21 @@
         <v>251729.16492</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>506438.71237</v>
+        <v>506866.4539</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>720932.2313399999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>720933.2596399999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>996735.04</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>94659.03010999999</v>
@@ -1328,16 +1279,21 @@
         <v>579772.76962</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>477785.88436</v>
+        <v>478179.0033699999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>639867.6952899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>639887.91633</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>904085.01</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1138.29813</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>61637.18633</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>81812.942</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>93520.73198000001</v>
@@ -1442,19 +1408,24 @@
         <v>218918.98864</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>578332.3617</v>
+        <v>578332.3616999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>442826.41701</v>
+        <v>443219.53602</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>578064.92495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>578085.14599</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>822247.492</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>165.58401</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>24.576</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>12887.84392</v>
@@ -1523,16 +1499,21 @@
         <v>-328043.6047</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>28652.82801</v>
+        <v>28687.45053</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>81064.53605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>81045.34331</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>92650.03</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>6971.83657</v>
@@ -1541,7 +1522,7 @@
         <v>8617.447830000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>9791.835050000002</v>
+        <v>9791.83505</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>10629.37306</v>
@@ -1562,16 +1543,21 @@
         <v>17169.2612</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>32370.22271</v>
+        <v>32377.63547</v>
       </c>
       <c r="M20" s="47" t="n">
         <v>47906.59088</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="47" t="n">
+        <v>56923.203</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>3495.924</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>338.37684</v>
@@ -1645,20 +1636,25 @@
       <c r="M22" s="48" t="n">
         <v>4036.2379</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>3786.198</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>6633.45973</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>8379.008099999999</v>
+        <v>8379.008100000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>9470.58697</v>
+        <v>9470.586969999998</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>10350.93955</v>
@@ -1679,34 +1675,39 @@
         <v>17004.04004</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>29206.81626</v>
+        <v>29214.22902</v>
       </c>
       <c r="M23" s="48" t="n">
         <v>43870.35298</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="48" t="n">
+        <v>49641.081</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>5916.00735</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-69.28981000000006</v>
+        <v>-69.28981000000053</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>6406.23547</v>
+        <v>6406.235470000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>8959.842939999999</v>
+        <v>8959.84294</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3180.103260000001</v>
+        <v>3180.10326</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8132.790959999998</v>
+        <v>8132.79096</v>
       </c>
       <c r="I24" s="47" t="n">
         <v>2848.21665</v>
@@ -1718,19 +1719,24 @@
         <v>-345212.8659</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-3717.3947</v>
+        <v>-3690.18494</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>33157.94517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>33138.75243</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>35726.827</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4160.198479999999</v>
+        <v>4160.19848</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>2677.36623</v>
@@ -1751,7 +1757,7 @@
         <v>7225.740599999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5782.45136</v>
+        <v>5782.451359999999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>358497.64949</v>
@@ -1762,11 +1768,16 @@
       <c r="M25" s="47" t="n">
         <v>37852.05587999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="47" t="n">
+        <v>86079.34699999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>231.44756</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>4853.88401</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>2206.531</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>114.549</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>663.3380599999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>72.015</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>19.26797</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>114.62645</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>136.672</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3374.54836</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>30936.74907</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>40346.62</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>420.38559</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>1283.45829</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>43317.509</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3772.98793</v>
@@ -2165,7 +2226,7 @@
         <v>2471.7278</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3629.68524</v>
+        <v>3629.685240000001</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>1010.09889</v>
@@ -2189,13 +2250,18 @@
         <v>64532.31475</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>29736.16811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>29737.52681</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>44145.34</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>30.50093</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>38.605</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>302.68856</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>697.0968799999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1236.09</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3097.27358</v>
@@ -2345,13 +2426,18 @@
         <v>62135.36978</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>28106.15981</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>28107.51851</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>40719.294</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>373.02579</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>902.41049</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>2151.351</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>3827.34425</v>
@@ -2483,10 +2584,10 @@
         <v>4172.93256</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7390.93853</v>
+        <v>7390.938529999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4432.46489</v>
+        <v>4432.464889999999</v>
       </c>
       <c r="I44" s="47" t="n">
         <v>8510.56517</v>
@@ -2498,16 +2599,21 @@
         <v>11801.53095</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17859.1243</v>
+        <v>17874.54535</v>
       </c>
       <c r="M44" s="47" t="n">
         <v>28122.08309</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>43546.036</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>3745.24412</v>
@@ -2531,22 +2637,27 @@
         <v>5848.19633</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9183.24402</v>
+        <v>9183.244020000002</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>8748.610789999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17453.2858</v>
+        <v>17468.70685</v>
       </c>
       <c r="M45" s="48" t="n">
         <v>21841.39435</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>31183.415</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>82.10013000000001</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>6280.688740000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>12362.621</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>2475.87365</v>
@@ -2603,28 +2719,33 @@
         <v>-4894.2604</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6222.607099999998</v>
+        <v>6222.607099999999</v>
       </c>
       <c r="I47" s="47" t="n">
         <v>-5610.399260000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5908.30963</v>
+        <v>-5908.309629999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-11344.45678</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-31429.13642</v>
+        <v>-31417.34771</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>13151.74985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>13131.19841</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>34114.798</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>667.45153</v>
@@ -2633,7 +2754,7 @@
         <v>526.0629399999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5176.77184</v>
+        <v>5176.771839999999</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>1252.69883</v>
@@ -2642,7 +2763,7 @@
         <v>682.8992900000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>896.5100800000001</v>
+        <v>896.5100799999999</v>
       </c>
       <c r="I48" s="47" t="n">
         <v>1133.35239</v>
@@ -2654,16 +2775,21 @@
         <v>4248.36696</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3065.92723</v>
+        <v>3066.13696</v>
       </c>
       <c r="M48" s="47" t="n">
         <v>3846.0769</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>4101.489</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1.61186</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>667.45153</v>
@@ -2711,7 +2842,7 @@
         <v>526.0629399999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5176.77184</v>
+        <v>5176.771839999999</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>1252.69883</v>
@@ -2732,25 +2863,30 @@
         <v>4248.36696</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2869.76731</v>
+        <v>2869.97704</v>
       </c>
       <c r="M50" s="48" t="n">
         <v>3844.46504</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>4101.489</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>508.9911299999999</v>
+        <v>508.99113</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>572.33587</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>964.5314000000001</v>
+        <v>964.5314</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>1927.62782</v>
@@ -2776,11 +2912,16 @@
       <c r="M51" s="47" t="n">
         <v>2337.91227</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="47" t="n">
+        <v>3809.056</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>404.34117</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>41.51</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>237.46586</v>
@@ -2849,16 +2995,21 @@
         <v>57.86208</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>662.48757</v>
+        <v>662.4875700000001</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>201.73417</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>271.52527</v>
@@ -2867,13 +3018,13 @@
         <v>538.4929</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>964.42888</v>
+        <v>964.4288799999999</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>1927.62782</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>928.36909</v>
+        <v>928.3690899999999</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>970.9161800000001</v>
@@ -2893,11 +3044,16 @@
       <c r="M54" s="48" t="n">
         <v>1731.83693</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>3767.301</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>2634.33405</v>
@@ -2906,10 +3062,10 @@
         <v>-3251.13074</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2745.772390000001</v>
+        <v>2745.77239</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8043.61268</v>
+        <v>8043.612680000002</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>-5361.70354</v>
@@ -2924,19 +3080,24 @@
         <v>-6401.3295</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-8049.616550000001</v>
+        <v>-8049.61655</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-33394.40431999999</v>
+        <v>-33382.40588</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>14659.91448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>14639.36304</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>34407.231</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>240.59928</v>
@@ -2966,16 +3127,21 @@
         <v>1101.86973</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1346.62234</v>
+        <v>1349.262</v>
       </c>
       <c r="M56" s="47" t="n">
         <v>1980.78333</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>3000.988</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>2393.73477</v>
@@ -2987,7 +3153,7 @@
         <v>2599.845890000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6548.9582</v>
+        <v>6548.958200000001</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>-5816.77984</v>
@@ -2996,7 +3162,7 @@
         <v>4101.95189</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-5976.706679999999</v>
+        <v>-5976.706679999998</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>-7743.4638</v>
@@ -3005,13 +3171,16 @@
         <v>-9151.486279999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-34741.02666</v>
+        <v>-34731.66788</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>12679.13115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>12658.57971</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>31406.243</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>11</v>
@@ -3059,13 +3231,16 @@
         <v>17</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>21</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>